--- a/AutomationFramework/src/test/resources/TestData/TestData.xlsx
+++ b/AutomationFramework/src/test/resources/TestData/TestData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D121DDF6-97B4-4164-8A35-3021220BB13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
   <si>
     <t>TestCases</t>
   </si>
@@ -99,31 +100,9 @@
     <t>endToEndTest</t>
   </si>
   <si>
-    <t>myStoreLogoTest
-myStoreTitle</t>
-  </si>
-  <si>
-    <t>wishListTest
-orderHistoryandDetailsTest</t>
-  </si>
-  <si>
-    <t>loginTest</t>
-  </si>
-  <si>
     <t>Expected Results</t>
   </si>
   <si>
-    <t>Logo should be present
-Title should match with expected value</t>
-  </si>
-  <si>
-    <t>User should be able to login</t>
-  </si>
-  <si>
-    <t>WishList should be displayed
-OderHistory should be displayed</t>
-  </si>
-  <si>
     <t>User should be navigate to account creation page</t>
   </si>
   <si>
@@ -134,9 +113,6 @@
   </si>
   <si>
     <t>Validate the Price on Order Page</t>
-  </si>
-  <si>
-    <t>User should be able to order the product</t>
   </si>
   <si>
     <t xml:space="preserve">My Store Application - </t>
@@ -294,13 +270,84 @@
   </si>
   <si>
     <t>newtest3@gmail.com</t>
+  </si>
+  <si>
+    <t>Pay by bank wire option present
+Pay by check option present</t>
+  </si>
+  <si>
+    <t>User should be able to add new address</t>
+  </si>
+  <si>
+    <t>Terms and condition button is selected to continue</t>
+  </si>
+  <si>
+    <t>User should be able to order the product and confirmation message will be shown</t>
+  </si>
+  <si>
+    <t>Login test with valid credentials
+Login test with invalid credentials
+Login fields visibility test</t>
+  </si>
+  <si>
+    <t>User should be able to login with valid credentials
+User should not be able to login using invalid credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wish list test
+Order history test
+Address test
+Credit slips test
+Personal Information Test
+Logout button verification
+</t>
+  </si>
+  <si>
+    <t>ContactPage</t>
+  </si>
+  <si>
+    <t>ContactPageTest</t>
+  </si>
+  <si>
+    <t>Subject type test
+Email test
+Message successful sent test</t>
+  </si>
+  <si>
+    <t>Smoke, Sanity</t>
+  </si>
+  <si>
+    <t>User should be able to send the message with subject, email and invoice attached</t>
+  </si>
+  <si>
+    <t>Logo Test
+Title Test
+Url Test
+Sign in option available
+Contact information verification
+Email information test
+Contact number test</t>
+  </si>
+  <si>
+    <t>Logo should be present
+Title should match with expected value
+Verify the URL
+Contact option should be displayed
+User should be able to navigate to login page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OderHistory should be displayed
+Personal Information should be displayed
+Saved address should be displayed
+Logout button should be displayed
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,7 +470,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -432,13 +479,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -463,13 +507,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -507,7 +559,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -541,6 +593,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -575,9 +628,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -750,19 +804,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="5" max="5" width="75.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
@@ -773,57 +827,57 @@
     <col min="13" max="13" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="8">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30">
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -831,173 +885,196 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="6" t="s">
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="E15" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>37</v>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1010,14 +1087,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
@@ -1026,26 +1103,26 @@
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>51</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId3"/>
@@ -1053,29 +1130,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
@@ -1083,35 +1160,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
+      <c r="C2" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1120,21 +1197,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
-        <v>56</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1143,14 +1220,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -1169,199 +1246,199 @@
     <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="C2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="F2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="G2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="H2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="I2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="K2" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="E3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="12" t="s">
+      <c r="J3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AutomationFramework/src/test/resources/TestData/TestData.xlsx
+++ b/AutomationFramework/src/test/resources/TestData/TestData.xlsx
@@ -3,24 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D121DDF6-97B4-4164-8A35-3021220BB13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE345258-740D-4D6A-A899-540DB2E778A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="Credentials" sheetId="2" r:id="rId2"/>
-    <sheet name="Email" sheetId="3" r:id="rId3"/>
-    <sheet name="ProductDetails" sheetId="4" r:id="rId4"/>
-    <sheet name="SearchProduct" sheetId="6" r:id="rId5"/>
-    <sheet name="AccountCreationData" sheetId="7" r:id="rId6"/>
+    <sheet name="AddressDetails" sheetId="8" r:id="rId2"/>
+    <sheet name="Credentials" sheetId="2" r:id="rId3"/>
+    <sheet name="Email" sheetId="3" r:id="rId4"/>
+    <sheet name="ProductDetails" sheetId="4" r:id="rId5"/>
+    <sheet name="SearchProduct" sheetId="6" r:id="rId6"/>
+    <sheet name="AccountCreationData" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="109">
   <si>
     <t>TestCases</t>
   </si>
@@ -168,9 +169,6 @@
   </si>
   <si>
     <t>qty</t>
-  </si>
-  <si>
-    <t>t-shirt</t>
   </si>
   <si>
     <t>M</t>
@@ -341,6 +339,42 @@
 Saved address should be displayed
 Logout button should be displayed
 </t>
+  </si>
+  <si>
+    <t>dresses</t>
+  </si>
+  <si>
+    <t>PostCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country </t>
+  </si>
+  <si>
+    <t>HomePhone</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Synopsis</t>
+  </si>
+  <si>
+    <t>67 Dower Lane</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Second Home</t>
+  </si>
+  <si>
+    <t>Ross</t>
   </si>
 </sst>
 </file>
@@ -470,7 +504,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -500,6 +534,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -807,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -885,13 +920,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -902,30 +937,30 @@
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -936,13 +971,13 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1026,7 +1061,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1037,7 +1072,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1048,7 +1083,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1074,7 +1109,7 @@
         <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1087,6 +1122,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31AFF05-6F35-49D3-8479-BA16239116AB}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="6">
+        <v>110022</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1122334455</v>
+      </c>
+      <c r="J2" s="6">
+        <v>22556677</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1096,7 +1224,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
@@ -1129,7 +1257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1147,7 +1275,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1159,12 +1287,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,13 +1310,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B2" s="6">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1196,11 +1324,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1211,7 +1341,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1219,7 +1349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -1251,187 +1381,187 @@
         <v>45</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="F2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="F3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="F4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/AutomationFramework/src/test/resources/TestData/TestData.xlsx
+++ b/AutomationFramework/src/test/resources/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE345258-740D-4D6A-A899-540DB2E778A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4DB1BC-D4D0-4C9C-8A49-709558C33A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -153,12 +153,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>admin@xyz.com</t>
-  </si>
-  <si>
-    <t>admin@123</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -375,6 +369,12 @@
   </si>
   <si>
     <t>Ross</t>
+  </si>
+  <si>
+    <t>admin@at.com</t>
+  </si>
+  <si>
+    <t>114477@88</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -534,7 +534,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -920,13 +919,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -937,30 +936,30 @@
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -971,13 +970,13 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1061,7 +1060,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1072,7 +1071,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1083,7 +1082,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1109,7 +1108,7 @@
         <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1125,7 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31AFF05-6F35-49D3-8479-BA16239116AB}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1141,72 +1140,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="G2" s="6">
         <v>110022</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="15">
+        <v>72</v>
+      </c>
+      <c r="I2" s="6">
         <v>1122334455</v>
       </c>
       <c r="J2" s="6">
         <v>22556677</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1218,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,16 +1240,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{A8DEFA41-5A4C-4EC4-A4AC-C1B18662D181}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId3"/>
@@ -1270,12 +1269,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1299,24 +1298,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="6">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1336,12 +1335,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1378,190 +1377,190 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="G2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="G3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="G4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/AutomationFramework/src/test/resources/TestData/TestData.xlsx
+++ b/AutomationFramework/src/test/resources/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4DB1BC-D4D0-4C9C-8A49-709558C33A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE2F8AD-FF9E-42F0-8F59-BFF5AF313E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
   <si>
     <t>TestCases</t>
   </si>
@@ -168,9 +168,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>ghfsdtyfg@gmail.com</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -253,15 +250,6 @@
   </si>
   <si>
     <t>ABCDEF</t>
-  </si>
-  <si>
-    <t>newtest1@gmail.com</t>
-  </si>
-  <si>
-    <t>newtest2@gmail.com</t>
-  </si>
-  <si>
-    <t>newtest3@gmail.com</t>
   </si>
   <si>
     <t>Pay by bank wire option present
@@ -375,6 +363,81 @@
   </si>
   <si>
     <t>114477@88</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>NewUser</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>Dale</t>
+  </si>
+  <si>
+    <t>FFF123</t>
+  </si>
+  <si>
+    <t>11220</t>
+  </si>
+  <si>
+    <t>9944117723</t>
+  </si>
+  <si>
+    <t>july9878</t>
+  </si>
+  <si>
+    <t>king5678</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Molly</t>
+  </si>
+  <si>
+    <t>GGHH12</t>
+  </si>
+  <si>
+    <t>22330</t>
+  </si>
+  <si>
+    <t>8844117720</t>
+  </si>
+  <si>
+    <t>newtest@mail.com</t>
+  </si>
+  <si>
+    <t>23651</t>
+  </si>
+  <si>
+    <t>112233366</t>
+  </si>
+  <si>
+    <t>223336655</t>
+  </si>
+  <si>
+    <t>newTester1@tmail.com</t>
+  </si>
+  <si>
+    <t>newTester2@tmail.com</t>
+  </si>
+  <si>
+    <t>newTester3@tmail.com</t>
   </si>
 </sst>
 </file>
@@ -919,13 +982,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -936,30 +999,30 @@
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -970,13 +1033,13 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1060,7 +1123,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1071,7 +1134,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1082,7 +1145,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1108,7 +1171,7 @@
         <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1125,7 +1188,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,72 +1203,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="C1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="G1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="D2" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="F2" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="6">
-        <v>110022</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="6">
-        <v>1122334455</v>
-      </c>
-      <c r="J2" s="6">
-        <v>22556677</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1217,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1240,10 +1303,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1260,7 +1323,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1274,12 +1339,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{DEEA7B61-A847-4AC5-92DE-DABB6A7B6881}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
@@ -1291,7 +1356,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,9 +1374,9 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="6">
+        <v>91</v>
+      </c>
+      <c r="B2" s="11">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1340,7 +1405,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1352,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,194 +1445,195 @@
         <v>43</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="J2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="L2" s="11" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="M2" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="O2" s="11" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>64</v>
+        <v>107</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="H3" s="11" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="J3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="M3" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="O3" s="11" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="F4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId2" display="july@98" xr:uid="{D29F8DB9-4987-44F7-ABC6-003AF8C99FF3}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{63043C96-5FA5-4EED-96EA-3CDDE03A9218}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{08771352-4AC7-4A9F-863F-F4FB0996B5AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AutomationFramework/src/test/resources/TestData/TestData.xlsx
+++ b/AutomationFramework/src/test/resources/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE2F8AD-FF9E-42F0-8F59-BFF5AF313E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B683A5FA-28C9-497C-90F5-0CC7EEF2D9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="131">
   <si>
     <t>TestCases</t>
   </si>
@@ -359,12 +359,6 @@
     <t>Ross</t>
   </si>
   <si>
-    <t>admin@at.com</t>
-  </si>
-  <si>
-    <t>114477@88</t>
-  </si>
-  <si>
     <t>Mr</t>
   </si>
   <si>
@@ -419,9 +413,6 @@
     <t>8844117720</t>
   </si>
   <si>
-    <t>newtest@mail.com</t>
-  </si>
-  <si>
     <t>23651</t>
   </si>
   <si>
@@ -431,13 +422,25 @@
     <t>223336655</t>
   </si>
   <si>
-    <t>newTester1@tmail.com</t>
-  </si>
-  <si>
-    <t>newTester2@tmail.com</t>
-  </si>
-  <si>
-    <t>newTester3@tmail.com</t>
+    <t>admin@testing.com</t>
+  </si>
+  <si>
+    <t>truetesting@123</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>newtester@tmail.com</t>
+  </si>
+  <si>
+    <t>newTester1@kmail.com</t>
+  </si>
+  <si>
+    <t>newTester2@kmail.com</t>
+  </si>
+  <si>
+    <t>newTester3@kmail.com</t>
   </si>
 </sst>
 </file>
@@ -904,7 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1256,16 +1259,16 @@
         <v>99</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>71</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>101</v>
@@ -1281,13 +1284,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
@@ -1303,10 +1306,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1339,7 +1342,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1356,7 +1359,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,8 +1379,8 @@
       <c r="A2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="11">
-        <v>2</v>
+      <c r="B2" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>47</v>
@@ -1489,34 +1492,34 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>68</v>
@@ -1525,45 +1528,45 @@
         <v>99</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>71</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="E3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>68</v>
@@ -1572,18 +1575,18 @@
         <v>69</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>71</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>62</v>

--- a/AutomationFramework/src/test/resources/TestData/TestData.xlsx
+++ b/AutomationFramework/src/test/resources/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B683A5FA-28C9-497C-90F5-0CC7EEF2D9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC5DA8F-3AF9-4CD9-9B83-BD445970F762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,13 +434,13 @@
     <t>newtester@tmail.com</t>
   </si>
   <si>
-    <t>newTester1@kmail.com</t>
-  </si>
-  <si>
-    <t>newTester2@kmail.com</t>
-  </si>
-  <si>
-    <t>newTester3@kmail.com</t>
+    <t>newTester1@cmail.com</t>
+  </si>
+  <si>
+    <t>newTester2@cmail.com</t>
+  </si>
+  <si>
+    <t>newTester3@cmail.com</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AutomationFramework/src/test/resources/TestData/TestData.xlsx
+++ b/AutomationFramework/src/test/resources/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC5DA8F-3AF9-4CD9-9B83-BD445970F762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1980472-2D44-47D8-92D0-0B55A25D9B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -431,16 +431,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>newtester@tmail.com</t>
-  </si>
-  <si>
-    <t>newTester1@cmail.com</t>
-  </si>
-  <si>
-    <t>newTester2@cmail.com</t>
-  </si>
-  <si>
-    <t>newTester3@cmail.com</t>
+    <t>newTester3@imail.com</t>
+  </si>
+  <si>
+    <t>newTester2@imail.com</t>
+  </si>
+  <si>
+    <t>newTester1@imail.com</t>
+  </si>
+  <si>
+    <t>newtester1@tmail.com</t>
   </si>
 </sst>
 </file>
@@ -1283,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>62</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>103</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>62</v>

--- a/AutomationFramework/src/test/resources/TestData/TestData.xlsx
+++ b/AutomationFramework/src/test/resources/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1980472-2D44-47D8-92D0-0B55A25D9B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74904E84-8A39-4896-BA45-3E5A729723CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,16 +431,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>newTester3@imail.com</t>
-  </si>
-  <si>
-    <t>newTester2@imail.com</t>
-  </si>
-  <si>
-    <t>newTester1@imail.com</t>
-  </si>
-  <si>
-    <t>newtester1@tmail.com</t>
+    <t>newautotester1@tmail.com</t>
+  </si>
+  <si>
+    <t>newTester10@imail.com</t>
+  </si>
+  <si>
+    <t>newTester20@imail.com</t>
+  </si>
+  <si>
+    <t>newTester30@imail.com</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1421,7 +1421,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>62</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>103</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>62</v>

--- a/AutomationFramework/src/test/resources/TestData/TestData.xlsx
+++ b/AutomationFramework/src/test/resources/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74904E84-8A39-4896-BA45-3E5A729723CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14C075C-D0F9-489C-A560-C89824C500CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -434,13 +434,13 @@
     <t>newautotester1@tmail.com</t>
   </si>
   <si>
-    <t>newTester10@imail.com</t>
-  </si>
-  <si>
-    <t>newTester20@imail.com</t>
-  </si>
-  <si>
-    <t>newTester30@imail.com</t>
+    <t>newTester11@imail.com</t>
+  </si>
+  <si>
+    <t>newTester12@imail.com</t>
+  </si>
+  <si>
+    <t>newTester13@imail.com</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1420,7 +1420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/AutomationFramework/src/test/resources/TestData/TestData.xlsx
+++ b/AutomationFramework/src/test/resources/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14C075C-D0F9-489C-A560-C89824C500CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC56456-4B32-4EFF-8320-9FF237E2B0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -431,16 +431,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>newautotester1@tmail.com</t>
-  </si>
-  <si>
-    <t>newTester11@imail.com</t>
-  </si>
-  <si>
-    <t>newTester12@imail.com</t>
-  </si>
-  <si>
-    <t>newTester13@imail.com</t>
+    <t>newTester21@imail.com</t>
+  </si>
+  <si>
+    <t>newTester22@imail.com</t>
+  </si>
+  <si>
+    <t>newTester23@imail.com</t>
+  </si>
+  <si>
+    <t>newautotester2@tmail.com</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1420,7 +1420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>62</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>103</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>62</v>
